--- a/excels/pings/01alpha_20n_sfu.xlsx
+++ b/excels/pings/01alpha_20n_sfu.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="01alpha_20n_sfu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01alpha_20n_sfu'!$C$1:$D$161</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -53,6 +56,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -531,8 +537,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -870,9 +877,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -890,13 +906,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -916,13 +932,13 @@
       <c r="E2">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.27858776791899997</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
@@ -945,13 +961,13 @@
       <c r="E3">
         <v>29</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.26713767854100001</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
@@ -974,13 +990,13 @@
       <c r="E4">
         <v>49</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.26791977180499998</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" t="s">
@@ -1003,13 +1019,13 @@
       <c r="E5">
         <v>69</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.26418574221500002</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I5" t="s">
@@ -1032,13 +1048,13 @@
       <c r="E6">
         <v>89</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.289919300125</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="s">
@@ -1061,13 +1077,13 @@
       <c r="E7">
         <v>108</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.26362141621700003</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>48.504070860500001</v>
       </c>
     </row>
@@ -1087,13 +1103,13 @@
       <c r="E8">
         <v>128</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.26981962928600001</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>51.554543233499999</v>
       </c>
     </row>
@@ -1113,13 +1129,13 @@
       <c r="E9">
         <v>148</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.26917669868100003</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>55.539415042199998</v>
       </c>
     </row>
@@ -1139,13 +1155,13 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.27989666857399997</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
@@ -1168,13 +1184,13 @@
       <c r="E11">
         <v>29</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.26694789456899998</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I11" t="s">
@@ -1197,13 +1213,13 @@
       <c r="E12">
         <v>49</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>0.26767914276999999</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
@@ -1226,13 +1242,13 @@
       <c r="E13">
         <v>69</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>0.264511380495</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I13" t="s">
@@ -1255,13 +1271,13 @@
       <c r="E14">
         <v>89</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
         <v>0.29079524158800002</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I14" t="s">
@@ -1284,13 +1300,13 @@
       <c r="E15">
         <v>108</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.26381522332500001</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>48.468438217399999</v>
       </c>
     </row>
@@ -1310,13 +1326,13 @@
       <c r="E16">
         <v>128</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.26976152087499999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>51.565648422099997</v>
       </c>
     </row>
@@ -1336,13 +1352,13 @@
       <c r="E17">
         <v>148</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.26916922784000002</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>55.540956548700002</v>
       </c>
     </row>
@@ -1362,13 +1378,13 @@
       <c r="E18">
         <v>9</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <v>0.28129158521699998</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I18" t="s">
@@ -1391,13 +1407,13 @@
       <c r="E19">
         <v>29</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <v>0.26677541828099999</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I19" t="s">
@@ -1420,13 +1436,13 @@
       <c r="E20">
         <v>49</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <v>0.26743008371400001</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I20" t="s">
@@ -1449,13 +1465,13 @@
       <c r="E21">
         <v>69</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
         <v>0.26484021020199999</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I21" t="s">
@@ -1478,13 +1494,13 @@
       <c r="E22">
         <v>89</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
         <v>0.29159934050699998</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I22" t="s">
@@ -1507,13 +1523,13 @@
       <c r="E23">
         <v>108</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>0.26403330143499998</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>48.428405746800003</v>
       </c>
     </row>
@@ -1533,13 +1549,13 @@
       <c r="E24">
         <v>128</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.26968630170000002</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>51.580030782199998</v>
       </c>
     </row>
@@ -1559,13 +1575,13 @@
       <c r="E25">
         <v>148</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.26917098084399999</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>55.540594832499998</v>
       </c>
     </row>
@@ -1585,13 +1601,13 @@
       <c r="E26">
         <v>9</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <v>0.28277841062999998</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I26" t="s">
@@ -1614,13 +1630,13 @@
       <c r="E27">
         <v>29</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <v>0.26663023228600002</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I27" t="s">
@@ -1643,13 +1659,13 @@
       <c r="E28">
         <v>49</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <v>0.26717392578299998</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I28" t="s">
@@ -1672,13 +1688,13 @@
       <c r="E29">
         <v>69</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
         <v>0.26517010326700002</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I29" t="s">
@@ -1701,13 +1717,13 @@
       <c r="E30">
         <v>89</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
         <v>0.29231669593999998</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I30" t="s">
@@ -1730,13 +1746,13 @@
       <c r="E31">
         <v>108</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>0.26428291493799999</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>48.382665430899998</v>
       </c>
     </row>
@@ -1756,13 +1772,13 @@
       <c r="E32">
         <v>128</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>0.26959361168500001</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>51.5977647108</v>
       </c>
     </row>
@@ -1782,13 +1798,13 @@
       <c r="E33">
         <v>148</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>0.26918302031199998</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>55.538110726299998</v>
       </c>
     </row>
@@ -1808,13 +1824,13 @@
       <c r="E34">
         <v>9</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
         <v>0.28436339413900003</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I34" t="s">
@@ -1837,13 +1853,13 @@
       <c r="E35">
         <v>29</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
         <v>0.266525555099</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I35" t="s">
@@ -1866,13 +1882,13 @@
       <c r="E36">
         <v>49</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
         <v>0.26691264142900001</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I36" t="s">
@@ -1895,13 +1911,13 @@
       <c r="E37">
         <v>69</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
         <v>0.26549839559600003</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I37" t="s">
@@ -1924,13 +1940,13 @@
       <c r="E38">
         <v>89</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
         <v>0.292931073087</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I38" t="s">
@@ -1953,13 +1969,13 @@
       <c r="E39">
         <v>108</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>0.264572448909</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>48.3297180235</v>
       </c>
     </row>
@@ -1979,13 +1995,13 @@
       <c r="E40">
         <v>128</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>0.26948363774599998</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>51.618821311799998</v>
       </c>
     </row>
@@ -2005,13 +2021,13 @@
       <c r="E41">
         <v>148</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>0.26920613549599998</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>55.533341987900002</v>
       </c>
     </row>
@@ -2031,13 +2047,13 @@
       <c r="E42">
         <v>9</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
         <v>0.28605315927300001</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I42" t="s">
@@ -2060,13 +2076,13 @@
       <c r="E43">
         <v>29</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
         <v>0.266478810605</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I43" t="s">
@@ -2089,13 +2105,13 @@
       <c r="E44">
         <v>49</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
         <v>0.26664925574100001</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I44" t="s">
@@ -2118,13 +2134,13 @@
       <c r="E45">
         <v>69</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
         <v>0.26582180909300002</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I45" t="s">
@@ -2147,13 +2163,13 @@
       <c r="E46">
         <v>89</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
         <v>0.293424817251</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I46" t="s">
@@ -2176,13 +2192,13 @@
       <c r="E47">
         <v>108</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>0.26491134750099998</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>48.267890270300001</v>
       </c>
     </row>
@@ -2202,13 +2218,13 @@
       <c r="E48">
         <v>128</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>0.26935743167800003</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>51.643007050500003</v>
       </c>
     </row>
@@ -2228,13 +2244,13 @@
       <c r="E49">
         <v>148</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>0.26924072199600002</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>55.526208208500002</v>
       </c>
     </row>
@@ -2254,13 +2270,13 @@
       <c r="E50">
         <v>9</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
         <v>0.28785472208899998</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I50" t="s">
@@ -2283,13 +2299,13 @@
       <c r="E51">
         <v>29</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
         <v>0.26651288070399998</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I51" t="s">
@@ -2312,13 +2328,13 @@
       <c r="E52">
         <v>49</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
         <v>0.26638852836799998</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I52" t="s">
@@ -2341,13 +2357,13 @@
       <c r="E53">
         <v>69</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
         <v>0.26613640779600001</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I53" t="s">
@@ -2370,13 +2386,13 @@
       <c r="E54">
         <v>89</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
         <v>0.29377874498000001</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I54" t="s">
@@ -2399,13 +2415,13 @@
       <c r="E55">
         <v>108</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>0.265309915221</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>48.195378758899999</v>
       </c>
     </row>
@@ -2425,13 +2441,13 @@
       <c r="E56">
         <v>128</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>0.26921735719000001</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>51.669877040800003</v>
       </c>
     </row>
@@ -2451,13 +2467,13 @@
       <c r="E57">
         <v>148</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>0.26928665733599999</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>55.516736460899999</v>
       </c>
     </row>
@@ -2477,13 +2493,13 @@
       <c r="E58">
         <v>9</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
         <v>0.28977551018300002</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I58" t="s">
@@ -2506,13 +2522,13 @@
       <c r="E59">
         <v>29</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
         <v>0.266657721116</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I59" t="s">
@@ -2535,13 +2551,13 @@
       <c r="E60">
         <v>49</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
         <v>0.26613807701499997</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I60" t="s">
@@ -2564,13 +2580,13 @@
       <c r="E61">
         <v>69</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
         <v>0.266437651266</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I61" t="s">
@@ -2593,13 +2609,13 @@
       <c r="E62">
         <v>89</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
         <v>0.29397200360100001</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I62" t="s">
@@ -2622,13 +2638,13 @@
       <c r="E63">
         <v>108</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <v>0.265778908722</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <v>48.110333186399998</v>
       </c>
     </row>
@@ -2648,13 +2664,13 @@
       <c r="E64">
         <v>128</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <v>0.269067699652</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <v>51.698616226399999</v>
       </c>
     </row>
@@ -2674,13 +2690,13 @@
       <c r="E65">
         <v>148</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>0.26934320022500002</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <v>55.505081900199997</v>
       </c>
     </row>
@@ -2700,13 +2716,13 @@
       <c r="E66">
         <v>9</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
         <v>0.29182338239400002</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I66" t="s">
@@ -2729,13 +2745,13 @@
       <c r="E67">
         <v>29</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
         <v>0.26695244192299999</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I67" t="s">
@@ -2758,13 +2774,13 @@
       <c r="E68">
         <v>49</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
         <v>0.265910216491</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I68" t="s">
@@ -2787,13 +2803,13 @@
       <c r="E69">
         <v>69</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
         <v>0.266720679249</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I69" t="s">
@@ -2816,13 +2832,13 @@
       <c r="E70">
         <v>89</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
         <v>0.29398189908700001</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I70" t="s">
@@ -2845,13 +2861,13 @@
       <c r="E71">
         <v>108</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>0.266328818164</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="1">
         <v>48.010996108900002</v>
       </c>
     </row>
@@ -2871,13 +2887,13 @@
       <c r="E72">
         <v>128</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>0.26891546519699999</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <v>51.7278830841</v>
       </c>
     </row>
@@ -2897,13 +2913,13 @@
       <c r="E73">
         <v>148</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>0.26940896798399999</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <v>55.4915320733</v>
       </c>
     </row>
@@ -2923,13 +2939,13 @@
       <c r="E74">
         <v>9</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
         <v>0.29400664922800002</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I74" t="s">
@@ -2952,13 +2968,13 @@
       <c r="E75">
         <v>29</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
         <v>0.267447981572</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I75" t="s">
@@ -2981,13 +2997,13 @@
       <c r="E76">
         <v>49</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
         <v>0.26572494962499998</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I76" t="s">
@@ -3010,13 +3026,13 @@
       <c r="E77">
         <v>69</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
         <v>0.26698110441700001</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I77" t="s">
@@ -3039,13 +3055,13 @@
       <c r="E78">
         <v>89</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
         <v>0.293783728031</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I78" t="s">
@@ -3068,13 +3084,13 @@
       <c r="E79">
         <v>108</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>0.26696870231399999</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="1">
         <v>47.895920914000001</v>
       </c>
     </row>
@@ -3094,13 +3110,13 @@
       <c r="E80">
         <v>128</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>0.26877136980499999</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="1">
         <v>51.7556157613</v>
       </c>
     </row>
@@ -3120,13 +3136,13 @@
       <c r="E81">
         <v>148</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <v>0.26948208844900001</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="1">
         <v>55.4764751668</v>
       </c>
     </row>
@@ -3146,13 +3162,13 @@
       <c r="E82">
         <v>9</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
         <v>0.29633409401799998</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I82" t="s">
@@ -3175,13 +3191,13 @@
       <c r="E83">
         <v>29</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
         <v>0.26821053707600001</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I83" t="s">
@@ -3204,13 +3220,13 @@
       <c r="E84">
         <v>49</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
         <v>0.26561480108500002</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I84" t="s">
@@ -3233,13 +3249,13 @@
       <c r="E85">
         <v>69</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
         <v>0.26721687425000001</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I85" t="s">
@@ -3262,13 +3278,13 @@
       <c r="E86">
         <v>89</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
         <v>0.29335075992100001</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I86" t="s">
@@ -3291,13 +3307,13 @@
       <c r="E87">
         <v>108</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>0.26770441210399998</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="1">
         <v>47.764292534600003</v>
       </c>
     </row>
@@ -3317,13 +3333,13 @@
       <c r="E88">
         <v>128</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <v>0.26865095717699999</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="1">
         <v>51.778813257899998</v>
       </c>
     </row>
@@ -3343,13 +3359,13 @@
       <c r="E89">
         <v>148</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <v>0.26956068143799999</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="1">
         <v>55.460300471099998</v>
       </c>
     </row>
@@ -3369,13 +3385,13 @@
       <c r="E90">
         <v>9</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
         <v>0.29881499483200002</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I90" t="s">
@@ -3398,13 +3414,13 @@
       <c r="E91">
         <v>29</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
         <v>0.26932595568500001</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I91" t="s">
@@ -3427,13 +3443,13 @@
       <c r="E92">
         <v>49</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
         <v>0.26563258278099999</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I92" t="s">
@@ -3456,13 +3472,13 @@
       <c r="E93">
         <v>69</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
         <v>0.267432323458</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I93" t="s">
@@ -3485,13 +3501,13 @@
       <c r="E94">
         <v>89</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
         <v>0.29265481995499998</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I94" t="s">
@@ -3514,13 +3530,13 @@
       <c r="E95">
         <v>108</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <v>0.26853606157900001</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="1">
         <v>47.616367713700001</v>
       </c>
     </row>
@@ -3540,13 +3556,13 @@
       <c r="E96">
         <v>128</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1">
         <v>0.26857566630399998</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="1">
         <v>51.793328616300002</v>
       </c>
     </row>
@@ -3566,13 +3582,13 @@
       <c r="E97">
         <v>148</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <v>0.26964389375800002</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="1">
         <v>55.443185378199999</v>
       </c>
     </row>
@@ -3592,13 +3608,13 @@
       <c r="E98">
         <v>9</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
         <v>0.30145914714799998</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I98" t="s">
@@ -3621,13 +3637,13 @@
       <c r="E99">
         <v>29</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
         <v>0.27090534640399999</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I99" t="s">
@@ -3650,13 +3666,13 @@
       <c r="E100">
         <v>49</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
         <v>0.26586379756599998</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I100" t="s">
@@ -3679,13 +3695,13 @@
       <c r="E101">
         <v>69</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
         <v>0.26764663295899999</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I101" t="s">
@@ -3708,13 +3724,13 @@
       <c r="E102">
         <v>89</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
         <v>0.291668712271</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I102" t="s">
@@ -3737,13 +3753,13 @@
       <c r="E103">
         <v>108</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1">
         <v>0.26945485181000001</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="1">
         <v>47.454004879199999</v>
       </c>
     </row>
@@ -3763,13 +3779,13 @@
       <c r="E104">
         <v>128</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="1">
         <v>0.268573501996</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="1">
         <v>51.793745994600002</v>
       </c>
     </row>
@@ -3789,13 +3805,13 @@
       <c r="E105">
         <v>148</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="1">
         <v>0.26973376731499998</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="1">
         <v>55.4247120653</v>
       </c>
     </row>
@@ -3815,13 +3831,13 @@
       <c r="E106">
         <v>9</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
         <v>0.30427688732000002</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I106" t="s">
@@ -3844,13 +3860,13 @@
       <c r="E107">
         <v>29</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
         <v>0.27309223580800002</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I107" t="s">
@@ -3873,13 +3889,13 @@
       <c r="E108">
         <v>49</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
         <v>0.26644634409200002</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I108" t="s">
@@ -3902,13 +3918,13 @@
       <c r="E109">
         <v>69</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
         <v>0.26791103236699998</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I109" t="s">
@@ -3931,13 +3947,13 @@
       <c r="E110">
         <v>89</v>
       </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
         <v>0.29037370312999999</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I110" t="s">
@@ -3960,13 +3976,13 @@
       <c r="E111">
         <v>108</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="1">
         <v>0.27044036018299999</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="1">
         <v>47.281078326699998</v>
       </c>
     </row>
@@ -3986,13 +4002,13 @@
       <c r="E112">
         <v>128</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="1">
         <v>0.26867892109800001</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="1">
         <v>51.773424154099999</v>
       </c>
     </row>
@@ -4012,13 +4028,13 @@
       <c r="E113">
         <v>148</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="1">
         <v>0.269838246216</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="1">
         <v>55.403252123599998</v>
       </c>
     </row>
@@ -4038,13 +4054,13 @@
       <c r="E114">
         <v>9</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
         <v>0.30727911684699999</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I114" t="s">
@@ -4067,13 +4083,13 @@
       <c r="E115">
         <v>29</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
         <v>0.27607167477400002</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I115" t="s">
@@ -4096,13 +4112,13 @@
       <c r="E116">
         <v>49</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
         <v>0.26760165867199998</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I116" t="s">
@@ -4125,13 +4141,13 @@
       <c r="E117">
         <v>69</v>
       </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
         <v>0.268343161035</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I117" t="s">
@@ -4154,13 +4170,13 @@
       <c r="E118">
         <v>89</v>
       </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
         <v>0.28878012835400002</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I118" t="s">
@@ -4183,13 +4199,13 @@
       <c r="E119">
         <v>108</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1">
         <v>0.27146281438699998</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="1">
         <v>47.102995971799999</v>
       </c>
     </row>
@@ -4209,13 +4225,13 @@
       <c r="E120">
         <v>128</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1">
         <v>0.26893256507199997</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="1">
         <v>51.724594005699998</v>
       </c>
     </row>
@@ -4235,13 +4251,13 @@
       <c r="E121">
         <v>148</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
         <v>0.26997587527</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="1">
         <v>55.375008499499998</v>
       </c>
     </row>
@@ -4261,13 +4277,13 @@
       <c r="E122">
         <v>9</v>
       </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
         <v>0.310477327468</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I122" t="s">
@@ -4290,13 +4306,13 @@
       <c r="E123">
         <v>29</v>
       </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
         <v>0.28008180454800002</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I123" t="s">
@@ -4319,13 +4335,13 @@
       <c r="E124">
         <v>49</v>
       </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
         <v>0.269683689635</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I124" t="s">
@@ -4348,13 +4364,13 @@
       <c r="E125">
         <v>69</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
         <v>0.26919478679499997</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I125" t="s">
@@ -4377,13 +4393,13 @@
       <c r="E126">
         <v>89</v>
       </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
         <v>0.28698083685100001</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I126" t="s">
@@ -4406,13 +4422,13 @@
       <c r="E127">
         <v>108</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <v>0.27250552904000003</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="1">
         <v>46.922761155000003</v>
       </c>
     </row>
@@ -4432,13 +4448,13 @@
       <c r="E128">
         <v>128</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>0.26938743699099998</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="1">
         <v>51.637254872100002</v>
       </c>
     </row>
@@ -4458,13 +4474,13 @@
       <c r="E129">
         <v>148</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>0.270185233834</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="1">
         <v>55.332100039499998</v>
       </c>
     </row>
@@ -4484,13 +4500,13 @@
       <c r="E130">
         <v>9</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
         <v>0.31388362709299999</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I130" t="s">
@@ -4513,13 +4529,13 @@
       <c r="E131">
         <v>29</v>
       </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
         <v>0.28542851654500001</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I131" t="s">
@@ -4542,13 +4558,13 @@
       <c r="E132">
         <v>49</v>
       </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
         <v>0.27325555164799997</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I132" t="s">
@@ -4571,13 +4587,13 @@
       <c r="E133">
         <v>69</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
         <v>0.270983836669</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I133" t="s">
@@ -4600,13 +4616,13 @@
       <c r="E134">
         <v>89</v>
       </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="1">
         <v>0.28528478969100002</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I134" t="s">
@@ -4629,13 +4645,13 @@
       <c r="E135">
         <v>108</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="1">
         <v>0.27365464078500001</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="1">
         <v>46.725726323700002</v>
       </c>
     </row>
@@ -4655,13 +4671,13 @@
       <c r="E136">
         <v>128</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="1">
         <v>0.27015386717899997</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="1">
         <v>51.490759279099997</v>
       </c>
     </row>
@@ -4681,13 +4697,13 @@
       <c r="E137">
         <v>148</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="1">
         <v>0.27055813940599999</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="1">
         <v>55.255836769799998</v>
       </c>
     </row>
@@ -4707,13 +4723,13 @@
       <c r="E138">
         <v>9</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
+      <c r="F138" s="1">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
         <v>0.31751076659999999</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I138" t="s">
@@ -4736,13 +4752,13 @@
       <c r="E139">
         <v>29</v>
       </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1">
         <v>0.29250399586999998</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I139" t="s">
@@ -4765,13 +4781,13 @@
       <c r="E140">
         <v>49</v>
       </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
+      <c r="F140" s="1">
+        <v>0</v>
+      </c>
+      <c r="G140" s="1">
         <v>0.27920896002200002</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I140" t="s">
@@ -4794,13 +4810,13 @@
       <c r="E141">
         <v>69</v>
       </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
+      <c r="G141" s="1">
         <v>0.27474947543</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I141" t="s">
@@ -4823,13 +4839,13 @@
       <c r="E142">
         <v>89</v>
       </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
+      <c r="G142" s="1">
         <v>0.28454279149900003</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I142" t="s">
@@ -4852,13 +4868,13 @@
       <c r="E143">
         <v>108</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="1">
         <v>0.27539651929100001</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="1">
         <v>46.430186864500001</v>
       </c>
     </row>
@@ -4878,13 +4894,13 @@
       <c r="E144">
         <v>128</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="1">
         <v>0.27161500285200002</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="1">
         <v>51.213768006800002</v>
       </c>
     </row>
@@ -4904,13 +4920,13 @@
       <c r="E145">
         <v>148</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="1">
         <v>0.27139966156000001</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="1">
         <v>55.084506376199997</v>
       </c>
     </row>
@@ -4930,13 +4946,13 @@
       <c r="E146">
         <v>9</v>
       </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+      <c r="G146" s="1">
         <v>0.32137216751199998</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I146" t="s">
@@ -4959,13 +4975,13 @@
       <c r="E147">
         <v>29</v>
       </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1">
         <v>0.30181013016000002</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I147" t="s">
@@ -4988,13 +5004,13 @@
       <c r="E148">
         <v>49</v>
       </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+      <c r="G148" s="1">
         <v>0.28894950526699997</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I148" t="s">
@@ -5017,13 +5033,13 @@
       <c r="E149">
         <v>69</v>
       </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1">
         <v>0.28254093872699998</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I149" t="s">
@@ -5046,13 +5062,13 @@
       <c r="E150">
         <v>89</v>
       </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
         <v>0.28692716265000001</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I150" t="s">
@@ -5075,13 +5091,13 @@
       <c r="E151">
         <v>108</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="1">
         <v>0.27952993914500002</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="1">
         <v>45.743621923500001</v>
       </c>
     </row>
@@ -5101,13 +5117,13 @@
       <c r="E152">
         <v>128</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="1">
         <v>0.27530740527999997</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="1">
         <v>50.526892762300001</v>
       </c>
     </row>
@@ -5127,13 +5143,13 @@
       <c r="E153">
         <v>148</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="1">
         <v>0.27401639308800002</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="1">
         <v>54.558474474</v>
       </c>
     </row>
@@ -5153,13 +5169,13 @@
       <c r="E154">
         <v>9</v>
       </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
         <v>0.32548195056599999</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I154" t="s">
@@ -5182,13 +5198,13 @@
       <c r="E155">
         <v>29</v>
       </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
         <v>0.31398800109899999</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I155" t="s">
@@ -5211,13 +5227,13 @@
       <c r="E156">
         <v>49</v>
       </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
         <v>0.30468284535200002</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I156" t="s">
@@ -5240,13 +5256,13 @@
       <c r="E157">
         <v>69</v>
       </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
         <v>0.29834743913</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I157" t="s">
@@ -5269,13 +5285,13 @@
       <c r="E158">
         <v>89</v>
       </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
         <v>0.29777102670700001</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I158" t="s">
@@ -5298,13 +5314,13 @@
       <c r="E159">
         <v>108</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>9.1743119266099998E-3</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="1">
         <v>0.291851025313</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="1">
         <v>43.812461644899997</v>
       </c>
     </row>
@@ -5324,13 +5340,13 @@
       <c r="E160">
         <v>128</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="1">
         <v>7.7519379845000002E-3</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="1">
         <v>0.28724196581</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="1">
         <v>48.427560729200003</v>
       </c>
     </row>
@@ -5350,17 +5366,18 @@
       <c r="E161">
         <v>148</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="1">
         <v>6.7114093959699996E-3</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="1">
         <v>0.28441515512400001</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="1">
         <v>52.563712300100001</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:D161"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excels/pings/01alpha_20n_sfu.xlsx
+++ b/excels/pings/01alpha_20n_sfu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve"> no se puede calcular el throughput</t>
+  </si>
+  <si>
+    <t>ertt avg</t>
   </si>
 </sst>
 </file>
@@ -875,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162:G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5376,6 +5379,15 @@
         <v>52.563712300100001</v>
       </c>
     </row>
+    <row r="162" spans="1:8">
+      <c r="F162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G162" s="1">
+        <f>SUM(G2:G161)/ROWS(G2:G161)</f>
+        <v>0.27685078275841224</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:D161"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
